--- a/generated_output/temp/us-core-goal.xlsx
+++ b/generated_output/temp/us-core-goal.xlsx
@@ -174,7 +174,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id {[]} {[]}
+    <t xml:space="preserve">id
 </t>
   </si>
   <si>
@@ -193,7 +193,7 @@
     <t>Goal.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">Meta {[]} {[]}
+    <t xml:space="preserve">Meta
 </t>
   </si>
   <si>
@@ -209,7 +209,7 @@
     <t>Goal.implicitRules</t>
   </si>
   <si>
-    <t xml:space="preserve">uri {[]} {[]}
+    <t xml:space="preserve">uri
 </t>
   </si>
   <si>
@@ -228,7 +228,7 @@
     <t>Goal.language</t>
   </si>
   <si>
-    <t xml:space="preserve">code {[]} {[]}
+    <t xml:space="preserve">code
 </t>
   </si>
   <si>
@@ -260,7 +260,7 @@
 htmlxhtmldisplay</t>
   </si>
   <si>
-    <t xml:space="preserve">Narrative {[]} {[]}
+    <t xml:space="preserve">Narrative
 </t>
   </si>
   <si>
@@ -286,7 +286,7 @@
 anonymous resourcescontained resources</t>
   </si>
   <si>
-    <t xml:space="preserve">Resource {[]} {[]}
+    <t xml:space="preserve">Resource
 </t>
   </si>
   <si>
@@ -312,7 +312,7 @@
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[]} {[]}
+    <t xml:space="preserve">Extension
 </t>
   </si>
   <si>
@@ -347,7 +347,7 @@
     <t>Goal.identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifier {[]} {[]}
+    <t xml:space="preserve">Identifier
 </t>
   </si>
   <si>
@@ -405,7 +405,7 @@
     <t>Goal.achievementStatus</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept {[]} {[]}
+    <t xml:space="preserve">CodeableConcept
 </t>
   </si>
   <si>
@@ -510,7 +510,7 @@
     <t>Goal.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient]]}
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient)
 </t>
   </si>
   <si>
@@ -535,8 +535,8 @@
     <t>Goal.start[x]</t>
   </si>
   <si>
-    <t>date {[]} {[]}
-CodeableConcept {[]} {[]}</t>
+    <t>date
+CodeableConcept</t>
   </si>
   <si>
     <t>When goal pursuit begins</t>
@@ -560,7 +560,7 @@
     <t>Goal.target</t>
   </si>
   <si>
-    <t xml:space="preserve">BackboneElement {[]} {[]}
+    <t xml:space="preserve">BackboneElement
 </t>
   </si>
   <si>
@@ -587,7 +587,7 @@
     <t>Goal.target.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string {[]} {[]}
+    <t xml:space="preserve">string
 </t>
   </si>
   <si>
@@ -647,8 +647,8 @@
     <t>Goal.target.detail[x]</t>
   </si>
   <si>
-    <t>Quantity {[]} {[]}
-Range {[]} {[]}CodeableConcept {[]} {[]}string {[]} {[]}boolean {[]} {[]}integer {[]} {[]}Ratio {[]} {[]}</t>
+    <t>Quantity
+RangeCodeableConceptstringbooleanintegerRatio</t>
   </si>
   <si>
     <t>The target value to be achieved</t>
@@ -666,8 +666,8 @@
     <t>Goal.target.due[x]</t>
   </si>
   <si>
-    <t>date {[]} {[]}
-Duration {[]} {[]}</t>
+    <t>date
+Duration</t>
   </si>
   <si>
     <t>Reach goal on or before</t>
@@ -685,7 +685,7 @@
     <t>Goal.statusDate</t>
   </si>
   <si>
-    <t xml:space="preserve">date {[]} {[]}
+    <t xml:space="preserve">date
 </t>
   </si>
   <si>
@@ -716,7 +716,7 @@
     <t>Goal.expressedBy</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Patient], CanonicalType[http://hl7.org/fhir/StructureDefinition/Practitioner], CanonicalType[http://hl7.org/fhir/StructureDefinition/PractitionerRole], CanonicalType[http://hl7.org/fhir/StructureDefinition/RelatedPerson]]}
+    <t xml:space="preserve">Reference(Patient|Practitioner|PractitionerRole|RelatedPerson)
 </t>
   </si>
   <si>
@@ -735,7 +735,7 @@
     <t>Goal.addresses</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Condition], CanonicalType[http://hl7.org/fhir/StructureDefinition/Observation], CanonicalType[http://hl7.org/fhir/StructureDefinition/MedicationStatement], CanonicalType[http://hl7.org/fhir/StructureDefinition/NutritionOrder], CanonicalType[http://hl7.org/fhir/StructureDefinition/ServiceRequest], CanonicalType[http://hl7.org/fhir/StructureDefinition/RiskAssessment]]}
+    <t xml:space="preserve">Reference(Condition|Observation|MedicationStatement|NutritionOrder|ServiceRequest|RiskAssessment)
 </t>
   </si>
   <si>
@@ -757,7 +757,7 @@
     <t>Goal.note</t>
   </si>
   <si>
-    <t xml:space="preserve">Annotation {[]} {[]}
+    <t xml:space="preserve">Annotation
 </t>
   </si>
   <si>
@@ -800,7 +800,7 @@
     <t>Goal.outcomeReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Observation]]}
+    <t xml:space="preserve">Reference(Observation)
 </t>
   </si>
   <si>
@@ -863,67 +863,67 @@
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin"/>
     </border>
     <border>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin"/>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin"/>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
     <border>
       <left style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </left>
       <right style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </right>
       <top style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </top>
       <bottom style="thin">
-        <color indexed="8"/>
+        <color indexed="23"/>
       </bottom>
     </border>
   </borders>
